--- a/Code/Results/Cases/Case_2_140/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_140/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.008667131051307</v>
+        <v>1.053462380191461</v>
       </c>
       <c r="D2">
-        <v>1.026785174153122</v>
+        <v>1.054942577598969</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.031268393794891</v>
+        <v>1.064246972990651</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04642473643997</v>
+        <v>1.041217604814249</v>
       </c>
       <c r="J2">
-        <v>1.030591664329611</v>
+        <v>1.058479597006812</v>
       </c>
       <c r="K2">
-        <v>1.037883546960555</v>
+        <v>1.057684398785629</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.042308642137291</v>
+        <v>1.0669634261984</v>
       </c>
       <c r="N2">
-        <v>1.032055222703475</v>
+        <v>1.059982759443869</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.016388472263986</v>
+        <v>1.054987353350884</v>
       </c>
       <c r="D3">
-        <v>1.032524696251439</v>
+        <v>1.056084274880118</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.037624715502444</v>
+        <v>1.065537212671073</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048563658905628</v>
+        <v>1.041552605815277</v>
       </c>
       <c r="J3">
-        <v>1.036442126944715</v>
+        <v>1.05965267101323</v>
       </c>
       <c r="K3">
-        <v>1.042757666765734</v>
+        <v>1.058638600962229</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.047797792155586</v>
+        <v>1.068067643831</v>
       </c>
       <c r="N3">
-        <v>1.03791399364655</v>
+        <v>1.061157499349929</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.021231443658567</v>
+        <v>1.055972533699497</v>
       </c>
       <c r="D4">
-        <v>1.036127555359292</v>
+        <v>1.056821532110635</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.04161778679094</v>
+        <v>1.066370825462873</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049892887049904</v>
+        <v>1.041767382086344</v>
       </c>
       <c r="J4">
-        <v>1.040107209722943</v>
+        <v>1.060409754689269</v>
       </c>
       <c r="K4">
-        <v>1.045808661370164</v>
+        <v>1.059253957113985</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.051238586279739</v>
+        <v>1.068780336261158</v>
       </c>
       <c r="N4">
-        <v>1.041584281262714</v>
+        <v>1.061915658171627</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.023232839598996</v>
+        <v>1.056386333286141</v>
       </c>
       <c r="D5">
-        <v>1.037617039138924</v>
+        <v>1.05713112142952</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.043269326576521</v>
+        <v>1.066720980364802</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050439169125747</v>
+        <v>1.04185719905393</v>
       </c>
       <c r="J5">
-        <v>1.041620697893801</v>
+        <v>1.06072756595737</v>
       </c>
       <c r="K5">
-        <v>1.047067941419425</v>
+        <v>1.059512160284309</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.052659908357143</v>
+        <v>1.069079523772292</v>
       </c>
       <c r="N5">
-        <v>1.043099918760374</v>
+        <v>1.062233920768182</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.02356691214132</v>
+        <v>1.056455790574099</v>
       </c>
       <c r="D6">
-        <v>1.037865693647629</v>
+        <v>1.057183082241479</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.043545078241129</v>
+        <v>1.066779755716765</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050530174107313</v>
+        <v>1.041872251918872</v>
       </c>
       <c r="J6">
-        <v>1.041873260181605</v>
+        <v>1.060780900667083</v>
       </c>
       <c r="K6">
-        <v>1.047278045367978</v>
+        <v>1.059555484980748</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.052897116036521</v>
+        <v>1.06912973369525</v>
       </c>
       <c r="N6">
-        <v>1.043352839715597</v>
+        <v>1.0622873312193</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.021258319679517</v>
+        <v>1.055978064354887</v>
       </c>
       <c r="D7">
-        <v>1.036147554986704</v>
+        <v>1.056825670241806</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.041639959456928</v>
+        <v>1.066375505405908</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049900234966626</v>
+        <v>1.04176858408911</v>
       </c>
       <c r="J7">
-        <v>1.04012753839542</v>
+        <v>1.060414003125701</v>
       </c>
       <c r="K7">
-        <v>1.045825578109335</v>
+        <v>1.059257409167184</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.051257675263707</v>
+        <v>1.068784335696448</v>
       </c>
       <c r="N7">
-        <v>1.041604638804237</v>
+        <v>1.061919912641326</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.011309650264504</v>
+        <v>1.053978083741795</v>
       </c>
       <c r="D8">
-        <v>1.028748745461994</v>
+        <v>1.055328732471011</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.033442346670543</v>
+        <v>1.064683279376441</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047159315232701</v>
+        <v>1.041331233504913</v>
       </c>
       <c r="J8">
-        <v>1.032594793939967</v>
+        <v>1.058876455009911</v>
       </c>
       <c r="K8">
-        <v>1.039552884003853</v>
+        <v>1.05800730857421</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.044187601147974</v>
+        <v>1.067336979543547</v>
       </c>
       <c r="N8">
-        <v>1.03406119698764</v>
+        <v>1.060380181030852</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9924999299776057</v>
+        <v>1.050441414425814</v>
       </c>
       <c r="D9">
-        <v>1.014790398540648</v>
+        <v>1.052679252262559</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.018001225049531</v>
+        <v>1.061691479296008</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041880138513657</v>
+        <v>1.040545227363666</v>
       </c>
       <c r="J9">
-        <v>1.01832034361452</v>
+        <v>1.056151722566762</v>
       </c>
       <c r="K9">
-        <v>1.027647984489072</v>
+        <v>1.055788363230371</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.030808843490822</v>
+        <v>1.064772464533508</v>
       </c>
       <c r="N9">
-        <v>1.019766475305429</v>
+        <v>1.057651579155103</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9789333178351008</v>
+        <v>1.048074770127937</v>
       </c>
       <c r="D10">
-        <v>1.004754163839207</v>
+        <v>1.05090476926654</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.00691483247257</v>
+        <v>1.05968996008534</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038011684973316</v>
+        <v>1.040010791774625</v>
       </c>
       <c r="J10">
-        <v>1.008008438216827</v>
+        <v>1.054324529542675</v>
       </c>
       <c r="K10">
-        <v>1.01903810767642</v>
+        <v>1.054297946645234</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.021160349858989</v>
+        <v>1.063052999019476</v>
       </c>
       <c r="N10">
-        <v>1.009439925819279</v>
+        <v>1.05582179130734</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9727709532877336</v>
+        <v>1.047047773506373</v>
       </c>
       <c r="D11">
-        <v>1.000205574158982</v>
+        <v>1.050134393318796</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.001893969443249</v>
+        <v>1.058821546283757</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036241429994165</v>
+        <v>1.039776874190313</v>
       </c>
       <c r="J11">
-        <v>1.003322065216768</v>
+        <v>1.053530713451988</v>
       </c>
       <c r="K11">
-        <v>1.015123614693507</v>
+        <v>1.05364987724555</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.016780256444183</v>
+        <v>1.062306058465713</v>
       </c>
       <c r="N11">
-        <v>1.004746897632025</v>
+        <v>1.055026847906751</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9704342913401481</v>
+        <v>1.046665957459032</v>
       </c>
       <c r="D12">
-        <v>0.9984826210725677</v>
+        <v>1.049847932892689</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9999926665980626</v>
+        <v>1.058498710171599</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035568345080279</v>
+        <v>1.039689608289501</v>
       </c>
       <c r="J12">
-        <v>1.001544859868075</v>
+        <v>1.053235452577807</v>
       </c>
       <c r="K12">
-        <v>1.01363894952055</v>
+        <v>1.053408742684251</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.015120007105641</v>
+        <v>1.062028244582434</v>
       </c>
       <c r="N12">
-        <v>1.002967168447888</v>
+        <v>1.054731167728263</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9709377491663755</v>
+        <v>1.046747874009443</v>
       </c>
       <c r="D13">
-        <v>0.9988537635133681</v>
+        <v>1.049909393684449</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.000402203189128</v>
+        <v>1.058567971875108</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035713448667222</v>
+        <v>1.039708344287591</v>
       </c>
       <c r="J13">
-        <v>1.001927784139863</v>
+        <v>1.053298805355563</v>
       </c>
       <c r="K13">
-        <v>1.013958848754182</v>
+        <v>1.053460485635307</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.015477693648386</v>
+        <v>1.062087853307331</v>
       </c>
       <c r="N13">
-        <v>1.003350636516065</v>
+        <v>1.05479461047423</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9725788047134916</v>
+        <v>1.047016219541741</v>
       </c>
       <c r="D14">
-        <v>1.00006385416245</v>
+        <v>1.050110720739087</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.001737568517607</v>
+        <v>1.05879486606769</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03618611719994</v>
+        <v>1.039769668498756</v>
       </c>
       <c r="J14">
-        <v>1.003175925355259</v>
+        <v>1.053506315343256</v>
       </c>
       <c r="K14">
-        <v>1.015001533668181</v>
+        <v>1.05362995344027</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.016643717017025</v>
+        <v>1.062283101804452</v>
       </c>
       <c r="N14">
-        <v>1.004600550235151</v>
+        <v>1.055002415149907</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9735834512392429</v>
+        <v>1.047181510237455</v>
       </c>
       <c r="D15">
-        <v>1.000804909956511</v>
+        <v>1.050234723921087</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.002555413045315</v>
+        <v>1.058934627279097</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036475245785818</v>
+        <v>1.039807402143393</v>
       </c>
       <c r="J15">
-        <v>1.003940008103436</v>
+        <v>1.053634115579468</v>
       </c>
       <c r="K15">
-        <v>1.015639819516713</v>
+        <v>1.053734313285605</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.017357637801102</v>
+        <v>1.062403352041724</v>
       </c>
       <c r="N15">
-        <v>1.005365718068471</v>
+        <v>1.055130396877113</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9793358634777686</v>
+        <v>1.048142880832627</v>
       </c>
       <c r="D16">
-        <v>1.005051524158422</v>
+        <v>1.05095585365193</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.007243142433413</v>
+        <v>1.059747556558108</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038127064059445</v>
+        <v>1.040026263166887</v>
       </c>
       <c r="J16">
-        <v>1.008314529666126</v>
+        <v>1.054377156490545</v>
       </c>
       <c r="K16">
-        <v>1.019293755354741</v>
+        <v>1.054340899311591</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.02144654250849</v>
+        <v>1.063102519894369</v>
       </c>
       <c r="N16">
-        <v>1.009746451953544</v>
+        <v>1.055874492991512</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9828641771267599</v>
+        <v>1.04874532099126</v>
       </c>
       <c r="D17">
-        <v>1.007659062021837</v>
+        <v>1.051407656059647</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>1.010122489348125</v>
+        <v>1.06025701429539</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039136902715063</v>
+        <v>1.040162876987103</v>
       </c>
       <c r="J17">
-        <v>1.010997168083426</v>
+        <v>1.054842537388034</v>
       </c>
       <c r="K17">
-        <v>1.021534119729171</v>
+        <v>1.054720665361234</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>1.023955332349277</v>
+        <v>1.063540442312121</v>
       </c>
       <c r="N17">
-        <v>1.012432900025101</v>
+        <v>1.056340534783255</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9848947314991694</v>
+        <v>1.049096500213</v>
       </c>
       <c r="D18">
-        <v>1.009160642136365</v>
+        <v>1.051670990937517</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>1.011780939494915</v>
+        <v>1.060554004679886</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039716831783691</v>
+        <v>1.040242320132978</v>
       </c>
       <c r="J18">
-        <v>1.012540799274461</v>
+        <v>1.055113732977004</v>
       </c>
       <c r="K18">
-        <v>1.022823102498328</v>
+        <v>1.054941915464661</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>1.025399370583904</v>
+        <v>1.063795643847099</v>
       </c>
       <c r="N18">
-        <v>1.013978723349484</v>
+        <v>1.056612115501068</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9855825663420271</v>
+        <v>1.049216207256287</v>
       </c>
       <c r="D19">
-        <v>1.00966944221609</v>
+        <v>1.051760748631983</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>1.012342952850918</v>
+        <v>1.060655242484544</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039913065054781</v>
+        <v>1.040269367321322</v>
       </c>
       <c r="J19">
-        <v>1.013063648756152</v>
+        <v>1.055206160931149</v>
       </c>
       <c r="K19">
-        <v>1.023259670506505</v>
+        <v>1.055017311932426</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>1.025888559136077</v>
+        <v>1.063882621947137</v>
       </c>
       <c r="N19">
-        <v>1.01450231533741</v>
+        <v>1.05670467471351</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9824884918885128</v>
+        <v>1.048680707061333</v>
       </c>
       <c r="D20">
-        <v>1.007381319522687</v>
+        <v>1.051359202028989</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180355766</v>
       </c>
       <c r="F20">
-        <v>1.009815759181214</v>
+        <v>1.060202371695835</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039029505458049</v>
+        <v>1.04014824460185</v>
       </c>
       <c r="J20">
-        <v>1.010711551473233</v>
+        <v>1.054792632665351</v>
       </c>
       <c r="K20">
-        <v>1.021295607292615</v>
+        <v>1.054679947096849</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9929783193490043</v>
       </c>
       <c r="M20">
-        <v>1.023688178585732</v>
+        <v>1.063493481340689</v>
       </c>
       <c r="N20">
-        <v>1.01214687780656</v>
+        <v>1.056290559190141</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9720969098475338</v>
+        <v>1.046937208038494</v>
       </c>
       <c r="D21">
-        <v>0.9997084603391054</v>
+        <v>1.050051443504376</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9882828385668255</v>
       </c>
       <c r="F21">
-        <v>1.001345367736819</v>
+        <v>1.058728058851059</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036047367654512</v>
+        <v>1.039751620514566</v>
       </c>
       <c r="J21">
-        <v>1.002809414137138</v>
+        <v>1.053445219985567</v>
       </c>
       <c r="K21">
-        <v>1.014695358134708</v>
+        <v>1.053580060835057</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198107</v>
       </c>
       <c r="M21">
-        <v>1.016301296463643</v>
+        <v>1.062225616167183</v>
       </c>
       <c r="N21">
-        <v>1.004233518529061</v>
+        <v>1.054941233029802</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9652847344213935</v>
+        <v>1.045839007196183</v>
       </c>
       <c r="D22">
-        <v>0.994689195667256</v>
+        <v>1.049227415902662</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241496</v>
       </c>
       <c r="F22">
-        <v>0.9958075571156411</v>
+        <v>1.05779954266907</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034081765227507</v>
+        <v>1.039500056159782</v>
       </c>
       <c r="J22">
-        <v>0.9976280217238627</v>
+        <v>1.052595717352305</v>
       </c>
       <c r="K22">
-        <v>1.010366599919464</v>
+        <v>1.052886127890563</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.991467000034148</v>
       </c>
       <c r="M22">
-        <v>1.01146252715157</v>
+        <v>1.061426333089228</v>
       </c>
       <c r="N22">
-        <v>0.9990447679442438</v>
+        <v>1.054090524005362</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9689240547358152</v>
+        <v>1.046421376469075</v>
       </c>
       <c r="D23">
-        <v>0.9973695797829782</v>
+        <v>1.049664420033109</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794636459</v>
       </c>
       <c r="F23">
-        <v>0.9987645614279611</v>
+        <v>1.058291916528769</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035132815721826</v>
+        <v>1.039633623670204</v>
       </c>
       <c r="J23">
-        <v>1.000396172063386</v>
+        <v>1.053046278119303</v>
       </c>
       <c r="K23">
-        <v>1.012679302161082</v>
+        <v>1.053254223411854</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9917760702887607</v>
       </c>
       <c r="M23">
-        <v>1.014047152402525</v>
+        <v>1.061850251779872</v>
       </c>
       <c r="N23">
-        <v>1.00181684937476</v>
+        <v>1.054541724620329</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9826583323817103</v>
+        <v>1.048709903976234</v>
       </c>
       <c r="D24">
-        <v>1.007506878991405</v>
+        <v>1.051381096918924</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347241</v>
       </c>
       <c r="F24">
-        <v>1.009954422073516</v>
+        <v>1.060227062852959</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039078061663639</v>
+        <v>1.040154857092862</v>
       </c>
       <c r="J24">
-        <v>1.010840674310772</v>
+        <v>1.054815183244038</v>
       </c>
       <c r="K24">
-        <v>1.021403435557471</v>
+        <v>1.054698346734531</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766438</v>
       </c>
       <c r="M24">
-        <v>1.023808953288895</v>
+        <v>1.063514701696906</v>
       </c>
       <c r="N24">
-        <v>1.012276184013339</v>
+        <v>1.056313141793237</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9975302003843303</v>
+        <v>1.051357254145445</v>
       </c>
       <c r="D25">
-        <v>1.018518764197985</v>
+        <v>1.053365622507484</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607046</v>
       </c>
       <c r="F25">
-        <v>1.022122896224816</v>
+        <v>1.062466137381495</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043302669594678</v>
+        <v>1.040750258641535</v>
       </c>
       <c r="J25">
-        <v>1.022140969979498</v>
+        <v>1.056857990937748</v>
       </c>
       <c r="K25">
-        <v>1.030836244527284</v>
+        <v>1.056363952347499</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426411</v>
       </c>
       <c r="M25">
-        <v>1.034387222295862</v>
+        <v>1.065437155117135</v>
       </c>
       <c r="N25">
-        <v>1.023592527398077</v>
+        <v>1.058358850508186</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_140/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_140/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.053462380191461</v>
+        <v>1.008667131051307</v>
       </c>
       <c r="D2">
-        <v>1.054942577598969</v>
+        <v>1.026785174153123</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.064246972990651</v>
+        <v>1.031268393794891</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041217604814249</v>
+        <v>1.046424736439971</v>
       </c>
       <c r="J2">
-        <v>1.058479597006812</v>
+        <v>1.030591664329612</v>
       </c>
       <c r="K2">
-        <v>1.057684398785629</v>
+        <v>1.037883546960555</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.0669634261984</v>
+        <v>1.042308642137291</v>
       </c>
       <c r="N2">
-        <v>1.059982759443869</v>
+        <v>1.032055222703476</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.054987353350884</v>
+        <v>1.016388472263986</v>
       </c>
       <c r="D3">
-        <v>1.056084274880118</v>
+        <v>1.032524696251438</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.065537212671073</v>
+        <v>1.037624715502444</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041552605815277</v>
+        <v>1.048563658905627</v>
       </c>
       <c r="J3">
-        <v>1.05965267101323</v>
+        <v>1.036442126944715</v>
       </c>
       <c r="K3">
-        <v>1.058638600962229</v>
+        <v>1.042757666765734</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.068067643831</v>
+        <v>1.047797792155586</v>
       </c>
       <c r="N3">
-        <v>1.061157499349929</v>
+        <v>1.03791399364655</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.055972533699497</v>
+        <v>1.021231443658567</v>
       </c>
       <c r="D4">
-        <v>1.056821532110635</v>
+        <v>1.036127555359293</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.066370825462873</v>
+        <v>1.041617786790941</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041767382086344</v>
+        <v>1.049892887049904</v>
       </c>
       <c r="J4">
-        <v>1.060409754689269</v>
+        <v>1.040107209722943</v>
       </c>
       <c r="K4">
-        <v>1.059253957113985</v>
+        <v>1.045808661370164</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.068780336261158</v>
+        <v>1.05123858627974</v>
       </c>
       <c r="N4">
-        <v>1.061915658171627</v>
+        <v>1.041584281262714</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.056386333286141</v>
+        <v>1.023232839598998</v>
       </c>
       <c r="D5">
-        <v>1.05713112142952</v>
+        <v>1.037617039138925</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.066720980364802</v>
+        <v>1.043269326576523</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04185719905393</v>
+        <v>1.050439169125748</v>
       </c>
       <c r="J5">
-        <v>1.06072756595737</v>
+        <v>1.041620697893803</v>
       </c>
       <c r="K5">
-        <v>1.059512160284309</v>
+        <v>1.047067941419427</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.069079523772292</v>
+        <v>1.052659908357144</v>
       </c>
       <c r="N5">
-        <v>1.062233920768182</v>
+        <v>1.043099918760376</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.056455790574099</v>
+        <v>1.02356691214132</v>
       </c>
       <c r="D6">
-        <v>1.057183082241479</v>
+        <v>1.037865693647629</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.066779755716765</v>
+        <v>1.043545078241128</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041872251918872</v>
+        <v>1.050530174107313</v>
       </c>
       <c r="J6">
-        <v>1.060780900667083</v>
+        <v>1.041873260181605</v>
       </c>
       <c r="K6">
-        <v>1.059555484980748</v>
+        <v>1.047278045367978</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.06912973369525</v>
+        <v>1.052897116036521</v>
       </c>
       <c r="N6">
-        <v>1.0622873312193</v>
+        <v>1.043352839715596</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.055978064354887</v>
+        <v>1.021258319679516</v>
       </c>
       <c r="D7">
-        <v>1.056825670241806</v>
+        <v>1.036147554986704</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.066375505405908</v>
+        <v>1.041639959456928</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04176858408911</v>
+        <v>1.049900234966626</v>
       </c>
       <c r="J7">
-        <v>1.060414003125701</v>
+        <v>1.04012753839542</v>
       </c>
       <c r="K7">
-        <v>1.059257409167184</v>
+        <v>1.045825578109335</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.068784335696448</v>
+        <v>1.051257675263707</v>
       </c>
       <c r="N7">
-        <v>1.061919912641326</v>
+        <v>1.041604638804237</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.053978083741795</v>
+        <v>1.011309650264502</v>
       </c>
       <c r="D8">
-        <v>1.055328732471011</v>
+        <v>1.028748745461993</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.064683279376441</v>
+        <v>1.033442346670542</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041331233504913</v>
+        <v>1.047159315232701</v>
       </c>
       <c r="J8">
-        <v>1.058876455009911</v>
+        <v>1.032594793939966</v>
       </c>
       <c r="K8">
-        <v>1.05800730857421</v>
+        <v>1.039552884003852</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.067336979543547</v>
+        <v>1.044187601147973</v>
       </c>
       <c r="N8">
-        <v>1.060380181030852</v>
+        <v>1.034061196987638</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.050441414425814</v>
+        <v>0.9924999299776051</v>
       </c>
       <c r="D9">
-        <v>1.052679252262559</v>
+        <v>1.014790398540647</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419923921</v>
       </c>
       <c r="F9">
-        <v>1.061691479296008</v>
+        <v>1.01800122504953</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040545227363666</v>
+        <v>1.041880138513657</v>
       </c>
       <c r="J9">
-        <v>1.056151722566762</v>
+        <v>1.018320343614519</v>
       </c>
       <c r="K9">
-        <v>1.055788363230371</v>
+        <v>1.027647984489072</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208832515</v>
       </c>
       <c r="M9">
-        <v>1.064772464533508</v>
+        <v>1.030808843490821</v>
       </c>
       <c r="N9">
-        <v>1.057651579155103</v>
+        <v>1.019766475305428</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.048074770127937</v>
+        <v>0.9789333178351024</v>
       </c>
       <c r="D10">
-        <v>1.05090476926654</v>
+        <v>1.004754163839208</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547276</v>
       </c>
       <c r="F10">
-        <v>1.05968996008534</v>
+        <v>1.006914832472571</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040010791774625</v>
+        <v>1.038011684973317</v>
       </c>
       <c r="J10">
-        <v>1.054324529542675</v>
+        <v>1.008008438216829</v>
       </c>
       <c r="K10">
-        <v>1.054297946645234</v>
+        <v>1.019038107676421</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689353</v>
       </c>
       <c r="M10">
-        <v>1.063052999019476</v>
+        <v>1.02116034985899</v>
       </c>
       <c r="N10">
-        <v>1.05582179130734</v>
+        <v>1.009439925819281</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.047047773506373</v>
+        <v>0.9727709532877319</v>
       </c>
       <c r="D11">
-        <v>1.050134393318796</v>
+        <v>1.000205574158981</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016261</v>
       </c>
       <c r="F11">
-        <v>1.058821546283757</v>
+        <v>1.001893969443248</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039776874190313</v>
+        <v>1.036241429994164</v>
       </c>
       <c r="J11">
-        <v>1.053530713451988</v>
+        <v>1.003322065216767</v>
       </c>
       <c r="K11">
-        <v>1.05364987724555</v>
+        <v>1.015123614693506</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416576</v>
       </c>
       <c r="M11">
-        <v>1.062306058465713</v>
+        <v>1.016780256444181</v>
       </c>
       <c r="N11">
-        <v>1.055026847906751</v>
+        <v>1.004746897632024</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.046665957459032</v>
+        <v>0.9704342913401499</v>
       </c>
       <c r="D12">
-        <v>1.049847932892689</v>
+        <v>0.9984826210725691</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411973</v>
       </c>
       <c r="F12">
-        <v>1.058498710171599</v>
+        <v>0.9999926665980641</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039689608289501</v>
+        <v>1.03556834508028</v>
       </c>
       <c r="J12">
-        <v>1.053235452577807</v>
+        <v>1.001544859868077</v>
       </c>
       <c r="K12">
-        <v>1.053408742684251</v>
+        <v>1.013638949520552</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252508</v>
       </c>
       <c r="M12">
-        <v>1.062028244582434</v>
+        <v>1.015120007105643</v>
       </c>
       <c r="N12">
-        <v>1.054731167728263</v>
+        <v>1.00296716844789</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.046747874009443</v>
+        <v>0.970937749166376</v>
       </c>
       <c r="D13">
-        <v>1.049909393684449</v>
+        <v>0.9988537635133684</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>1.058567971875108</v>
+        <v>1.000402203189128</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039708344287591</v>
+        <v>1.035713448667223</v>
       </c>
       <c r="J13">
-        <v>1.053298805355563</v>
+        <v>1.001927784139863</v>
       </c>
       <c r="K13">
-        <v>1.053460485635307</v>
+        <v>1.013958848754183</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.062087853307331</v>
+        <v>1.015477693648387</v>
       </c>
       <c r="N13">
-        <v>1.05479461047423</v>
+        <v>1.003350636516065</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.047016219541741</v>
+        <v>0.9725788047134902</v>
       </c>
       <c r="D14">
-        <v>1.050110720739087</v>
+        <v>1.000063854162448</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.05879486606769</v>
+        <v>1.001737568517606</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039769668498756</v>
+        <v>1.036186117199939</v>
       </c>
       <c r="J14">
-        <v>1.053506315343256</v>
+        <v>1.003175925355258</v>
       </c>
       <c r="K14">
-        <v>1.05362995344027</v>
+        <v>1.01500153366818</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.062283101804452</v>
+        <v>1.016643717017023</v>
       </c>
       <c r="N14">
-        <v>1.055002415149907</v>
+        <v>1.00460055023515</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.047181510237455</v>
+        <v>0.9735834512392431</v>
       </c>
       <c r="D15">
-        <v>1.050234723921087</v>
+        <v>1.000804909956511</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050717477</v>
       </c>
       <c r="F15">
-        <v>1.058934627279097</v>
+        <v>1.002555413045315</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039807402143393</v>
+        <v>1.036475245785818</v>
       </c>
       <c r="J15">
-        <v>1.053634115579468</v>
+        <v>1.003940008103436</v>
       </c>
       <c r="K15">
-        <v>1.053734313285605</v>
+        <v>1.015639819516713</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767195</v>
       </c>
       <c r="M15">
-        <v>1.062403352041724</v>
+        <v>1.017357637801102</v>
       </c>
       <c r="N15">
-        <v>1.055130396877113</v>
+        <v>1.005365718068471</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.048142880832627</v>
+        <v>0.9793358634777689</v>
       </c>
       <c r="D16">
-        <v>1.05095585365193</v>
+        <v>1.005051524158422</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017262</v>
       </c>
       <c r="F16">
-        <v>1.059747556558108</v>
+        <v>1.007243142433413</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040026263166887</v>
+        <v>1.038127064059446</v>
       </c>
       <c r="J16">
-        <v>1.054377156490545</v>
+        <v>1.008314529666126</v>
       </c>
       <c r="K16">
-        <v>1.054340899311591</v>
+        <v>1.019293755354741</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175719</v>
       </c>
       <c r="M16">
-        <v>1.063102519894369</v>
+        <v>1.02144654250849</v>
       </c>
       <c r="N16">
-        <v>1.055874492991512</v>
+        <v>1.009746451953545</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.04874532099126</v>
+        <v>0.982864177126761</v>
       </c>
       <c r="D17">
-        <v>1.051407656059647</v>
+        <v>1.007659062021839</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>1.06025701429539</v>
+        <v>1.010122489348126</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040162876987103</v>
+        <v>1.039136902715063</v>
       </c>
       <c r="J17">
-        <v>1.054842537388034</v>
+        <v>1.010997168083428</v>
       </c>
       <c r="K17">
-        <v>1.054720665361234</v>
+        <v>1.021534119729172</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>1.063540442312121</v>
+        <v>1.023955332349278</v>
       </c>
       <c r="N17">
-        <v>1.056340534783255</v>
+        <v>1.012432900025102</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.049096500213</v>
+        <v>0.9848947314991678</v>
       </c>
       <c r="D18">
-        <v>1.051670990937517</v>
+        <v>1.009160642136364</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.9393832867215681</v>
       </c>
       <c r="F18">
-        <v>1.060554004679886</v>
+        <v>1.011780939494914</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040242320132978</v>
+        <v>1.03971683178369</v>
       </c>
       <c r="J18">
-        <v>1.055113732977004</v>
+        <v>1.01254079927446</v>
       </c>
       <c r="K18">
-        <v>1.054941915464661</v>
+        <v>1.022823102498327</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865724</v>
       </c>
       <c r="M18">
-        <v>1.063795643847099</v>
+        <v>1.025399370583903</v>
       </c>
       <c r="N18">
-        <v>1.056612115501068</v>
+        <v>1.013978723349483</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.049216207256287</v>
+        <v>0.9855825663420268</v>
       </c>
       <c r="D19">
-        <v>1.051760748631983</v>
+        <v>1.00966944221609</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.9397594814684961</v>
       </c>
       <c r="F19">
-        <v>1.060655242484544</v>
+        <v>1.012342952850918</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040269367321322</v>
+        <v>1.039913065054781</v>
       </c>
       <c r="J19">
-        <v>1.055206160931149</v>
+        <v>1.013063648756151</v>
       </c>
       <c r="K19">
-        <v>1.055017311932426</v>
+        <v>1.023259670506505</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.9546352493816586</v>
       </c>
       <c r="M19">
-        <v>1.063882621947137</v>
+        <v>1.025888559136077</v>
       </c>
       <c r="N19">
-        <v>1.05670467471351</v>
+        <v>1.01450231533741</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.048680707061333</v>
+        <v>0.9824884918885108</v>
       </c>
       <c r="D20">
-        <v>1.051359202028989</v>
+        <v>1.007381319522685</v>
       </c>
       <c r="E20">
-        <v>0.9894336180355766</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.060202371695835</v>
+        <v>1.009815759181212</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04014824460185</v>
+        <v>1.039029505458049</v>
       </c>
       <c r="J20">
-        <v>1.054792632665351</v>
+        <v>1.010711551473231</v>
       </c>
       <c r="K20">
-        <v>1.054679947096849</v>
+        <v>1.021295607292614</v>
       </c>
       <c r="L20">
-        <v>0.9929783193490043</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.063493481340689</v>
+        <v>1.02368817858573</v>
       </c>
       <c r="N20">
-        <v>1.056290559190141</v>
+        <v>1.012146877806558</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.046937208038494</v>
+        <v>0.9720969098475332</v>
       </c>
       <c r="D21">
-        <v>1.050051443504376</v>
+        <v>0.999708460339105</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668255</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.058728058851059</v>
+        <v>1.001345367736818</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039751620514566</v>
+        <v>1.036047367654512</v>
       </c>
       <c r="J21">
-        <v>1.053445219985567</v>
+        <v>1.002809414137138</v>
       </c>
       <c r="K21">
-        <v>1.053580060835057</v>
+        <v>1.014695358134708</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198107</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.062225616167183</v>
+        <v>1.016301296463643</v>
       </c>
       <c r="N21">
-        <v>1.054941233029802</v>
+        <v>1.00423351852906</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.045839007196183</v>
+        <v>0.9652847344213937</v>
       </c>
       <c r="D22">
-        <v>1.049227415902662</v>
+        <v>0.994689195667256</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241496</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.05779954266907</v>
+        <v>0.9958075571156412</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039500056159782</v>
+        <v>1.034081765227507</v>
       </c>
       <c r="J22">
-        <v>1.052595717352305</v>
+        <v>0.9976280217238629</v>
       </c>
       <c r="K22">
-        <v>1.052886127890563</v>
+        <v>1.010366599919464</v>
       </c>
       <c r="L22">
-        <v>0.991467000034148</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.061426333089228</v>
+        <v>1.01146252715157</v>
       </c>
       <c r="N22">
-        <v>1.054090524005362</v>
+        <v>0.9990447679442439</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.046421376469075</v>
+        <v>0.9689240547358153</v>
       </c>
       <c r="D23">
-        <v>1.049664420033109</v>
+        <v>0.9973695797829789</v>
       </c>
       <c r="E23">
-        <v>0.9879432794636459</v>
+        <v>0.9308081199963312</v>
       </c>
       <c r="F23">
-        <v>1.058291916528769</v>
+        <v>0.9987645614279616</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039633623670204</v>
+        <v>1.035132815721827</v>
       </c>
       <c r="J23">
-        <v>1.053046278119303</v>
+        <v>1.000396172063386</v>
       </c>
       <c r="K23">
-        <v>1.053254223411854</v>
+        <v>1.012679302161082</v>
       </c>
       <c r="L23">
-        <v>0.9917760702887607</v>
+        <v>0.9475391330285317</v>
       </c>
       <c r="M23">
-        <v>1.061850251779872</v>
+        <v>1.014047152402525</v>
       </c>
       <c r="N23">
-        <v>1.054541724620329</v>
+        <v>1.001816849374761</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.048709903976234</v>
+        <v>0.9826583323817103</v>
       </c>
       <c r="D24">
-        <v>1.051381096918924</v>
+        <v>1.007506878991406</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347241</v>
+        <v>0.938164042401182</v>
       </c>
       <c r="F24">
-        <v>1.060227062852959</v>
+        <v>1.009954422073516</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040154857092862</v>
+        <v>1.039078061663639</v>
       </c>
       <c r="J24">
-        <v>1.054815183244038</v>
+        <v>1.010840674310772</v>
       </c>
       <c r="K24">
-        <v>1.054698346734531</v>
+        <v>1.021403435557471</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766438</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.063514701696906</v>
+        <v>1.023808953288895</v>
       </c>
       <c r="N24">
-        <v>1.056313141793237</v>
+        <v>1.012276184013339</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.051357254145445</v>
+        <v>0.9975302003843282</v>
       </c>
       <c r="D25">
-        <v>1.053365622507484</v>
+        <v>1.018518764197983</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607046</v>
+        <v>0.9463835801718021</v>
       </c>
       <c r="F25">
-        <v>1.062466137381495</v>
+        <v>1.022122896224814</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040750258641535</v>
+        <v>1.043302669594678</v>
       </c>
       <c r="J25">
-        <v>1.056857990937748</v>
+        <v>1.022140969979496</v>
       </c>
       <c r="K25">
-        <v>1.056363952347499</v>
+        <v>1.030836244527282</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426411</v>
+        <v>0.9598754494005834</v>
       </c>
       <c r="M25">
-        <v>1.065437155117135</v>
+        <v>1.03438722229586</v>
       </c>
       <c r="N25">
-        <v>1.058358850508186</v>
+        <v>1.023592527398075</v>
       </c>
     </row>
   </sheetData>
